--- a/crypto_data.xlsx
+++ b/crypto_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Crypto Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Live Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,29 +443,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Price (USD)</t>
@@ -478,7 +475,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Volume (24h)</t>
+          <t>24h Volume</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -487,21 +484,6 @@
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Circulating Supply</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Market Share %</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volume/Market Cap Ratio</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
@@ -510,1900 +492,1450 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>btc</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bitcoin</t>
-        </is>
-      </c>
       <c r="C2" t="n">
-        <v>96391</v>
+        <v>96037</v>
       </c>
       <c r="D2" t="n">
-        <v>1902897962787</v>
+        <v>1901531928973</v>
       </c>
       <c r="E2" t="n">
-        <v>54330810905</v>
+        <v>50744921408</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.54159</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19800062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59.14595889256123</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02855161546624741</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.13315</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>eth</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ethereum</t>
-        </is>
-      </c>
       <c r="C3" t="n">
-        <v>3350.79</v>
+        <v>3340.58</v>
       </c>
       <c r="D3" t="n">
-        <v>402850042239</v>
+        <v>402189991427</v>
       </c>
       <c r="E3" t="n">
-        <v>30876609234</v>
+        <v>30890258512</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.76839</v>
-      </c>
-      <c r="G3" t="n">
-        <v>120457250.7787153</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.52140288344063</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07664541639958858</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.2476</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>usdt</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tether</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>1.001</v>
+        <v>0.998908</v>
       </c>
       <c r="D4" t="n">
-        <v>139791907376</v>
+        <v>139694976332</v>
       </c>
       <c r="E4" t="n">
-        <v>60699334398</v>
+        <v>98635542699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16379</v>
-      </c>
-      <c r="G4" t="n">
-        <v>139848269931.1628</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.34501826627848</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4342120766314194</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.08375</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>xrp</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>XRP</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2.21</v>
       </c>
       <c r="D5" t="n">
-        <v>126313962073</v>
+        <v>126339110391</v>
       </c>
       <c r="E5" t="n">
-        <v>11134367543</v>
+        <v>11022640234</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.69399</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57252380420</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.926096172484291</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.08814835161741795</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.97902</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>bnb</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BNB</t>
-        </is>
-      </c>
       <c r="C6" t="n">
-        <v>674.85</v>
+        <v>672.85</v>
       </c>
       <c r="D6" t="n">
-        <v>98235846485</v>
+        <v>98124938948</v>
       </c>
       <c r="E6" t="n">
-        <v>1622461833</v>
+        <v>1625742805</v>
       </c>
       <c r="F6" t="n">
-        <v>1.30013</v>
-      </c>
-      <c r="G6" t="n">
-        <v>145887575.79</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.053370938223098</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01651598567176535</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.8958700000000001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>sol</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Solana</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>185.25</v>
+        <v>184.37</v>
       </c>
       <c r="D7" t="n">
-        <v>88468809808</v>
+        <v>88267216719</v>
       </c>
       <c r="E7" t="n">
-        <v>5637201675</v>
+        <v>5631623965</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1942</v>
-      </c>
-      <c r="G7" t="n">
-        <v>479341537.4447778</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.749791470959439</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.06371965088299676</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.86008</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>doge</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dogecoin</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>0.317372</v>
+        <v>0.316429</v>
       </c>
       <c r="D8" t="n">
-        <v>46554606453</v>
+        <v>46600187863</v>
       </c>
       <c r="E8" t="n">
-        <v>4361896856</v>
+        <v>4341180910</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9552</v>
-      </c>
-      <c r="G8" t="n">
-        <v>147314376383.7052</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.447012342950686</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0936942053286097</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.43487</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>usdc</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>USDC</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>1.003</v>
+        <v>0.999981</v>
       </c>
       <c r="D9" t="n">
-        <v>43018821268</v>
+        <v>42930785962</v>
       </c>
       <c r="E9" t="n">
-        <v>8677111670</v>
+        <v>6075440848</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3379</v>
-      </c>
-      <c r="G9" t="n">
-        <v>42944345425.18052</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.337112910981854</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.2017050075812877</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.05207</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Lido Staked Ether</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>steth</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lido Staked Ether</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>3343.42</v>
+        <v>3338.4</v>
       </c>
       <c r="D10" t="n">
-        <v>32451921973</v>
+        <v>32439220095</v>
       </c>
       <c r="E10" t="n">
-        <v>177818749</v>
+        <v>178802932</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9329499999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9716998.448474601</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.008672078343335</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.00547945200743257</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.09028</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Cardano</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>ada</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cardano</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>0.899755</v>
+        <v>0.896973</v>
       </c>
       <c r="D11" t="n">
-        <v>32067031786</v>
+        <v>32095078356</v>
       </c>
       <c r="E11" t="n">
-        <v>1295615377</v>
+        <v>1283284505</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.51711</v>
-      </c>
-      <c r="G11" t="n">
-        <v>35830920240.40624</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9967089044771388</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.04040334589263877</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.63663</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>TRON</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>trx</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TRON</t>
-        </is>
-      </c>
       <c r="C12" t="n">
-        <v>0.249861</v>
+        <v>0.249666</v>
       </c>
       <c r="D12" t="n">
-        <v>21475170033</v>
+        <v>21512169794</v>
       </c>
       <c r="E12" t="n">
-        <v>1513938774</v>
+        <v>1511453057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.61542</v>
-      </c>
-      <c r="G12" t="n">
-        <v>86215995634.12105</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6674921876117204</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.07049717285933445</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.40166</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Avalanche</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>avax</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Avalanche</t>
-        </is>
-      </c>
       <c r="C13" t="n">
-        <v>37.2</v>
+        <v>37.06</v>
       </c>
       <c r="D13" t="n">
-        <v>15228900729</v>
+        <v>15165280876</v>
       </c>
       <c r="E13" t="n">
-        <v>547670602</v>
+        <v>544885751</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.1268</v>
-      </c>
-      <c r="G13" t="n">
-        <v>409833500.9127202</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4733453680181128</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.03596258270677969</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.5641</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>link</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Chainlink</t>
-        </is>
-      </c>
       <c r="C14" t="n">
-        <v>23.17</v>
+        <v>23.05</v>
       </c>
       <c r="D14" t="n">
-        <v>14553094912</v>
+        <v>14524214699</v>
       </c>
       <c r="E14" t="n">
-        <v>1311121821</v>
+        <v>1308987451</v>
       </c>
       <c r="F14" t="n">
-        <v>2.49156</v>
-      </c>
-      <c r="G14" t="n">
-        <v>631099972.3083414</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4523399416351376</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.09009230194182904</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>2.01012</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Wrapped stETH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>wsteth</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Wrapped stETH</t>
-        </is>
-      </c>
       <c r="C15" t="n">
-        <v>3962.15</v>
+        <v>3954.33</v>
       </c>
       <c r="D15" t="n">
-        <v>13892651446</v>
+        <v>13881790958</v>
       </c>
       <c r="E15" t="n">
-        <v>108689711</v>
+        <v>109331075</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.30338</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3511787.50258085</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4318120085274237</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.007823539762907833</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.50624</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Toncoin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>ton</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Toncoin</t>
-        </is>
-      </c>
       <c r="C16" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="D16" t="n">
-        <v>13879773084</v>
+        <v>13857652279</v>
       </c>
       <c r="E16" t="n">
-        <v>285964792</v>
+        <v>285481191</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16121</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2551880801.598032</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4314117227084511</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.02060298754665145</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.63062</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Shiba Inu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>shib</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Shiba Inu</t>
-        </is>
-      </c>
       <c r="C17" t="n">
-        <v>2.187e-05</v>
+        <v>2.181e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>12854286256</v>
+        <v>12839473773</v>
       </c>
       <c r="E17" t="n">
-        <v>671100676</v>
+        <v>669688209</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.59882</v>
-      </c>
-      <c r="G17" t="n">
-        <v>589255475510703.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.3995374956296026</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.05220831889337692</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.04357</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Wrapped Bitcoin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>wbtc</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Wrapped Bitcoin</t>
-        </is>
-      </c>
       <c r="C18" t="n">
-        <v>95917</v>
+        <v>95642</v>
       </c>
       <c r="D18" t="n">
-        <v>12825940219</v>
+        <v>12795860441</v>
       </c>
       <c r="E18" t="n">
-        <v>332834084</v>
+        <v>337840921</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8020699999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>133853.57004411</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.3986564428501285</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.02595007292385073</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.25685</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Sui</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>sui</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sui</t>
-        </is>
-      </c>
       <c r="C19" t="n">
-        <v>4.37</v>
+        <v>4.34</v>
       </c>
       <c r="D19" t="n">
-        <v>12745583882</v>
+        <v>12683839729</v>
       </c>
       <c r="E19" t="n">
-        <v>1616052826</v>
+        <v>2155107461</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.84722</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2927660018.558888</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3961588036188595</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.12679315761142</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-3.41675</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Stellar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>xlm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Stellar</t>
-        </is>
-      </c>
       <c r="C20" t="n">
-        <v>0.360108</v>
+        <v>0.359167</v>
       </c>
       <c r="D20" t="n">
-        <v>10846947671</v>
+        <v>10851108269</v>
       </c>
       <c r="E20" t="n">
-        <v>444916342</v>
+        <v>441934683</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.33295</v>
-      </c>
-      <c r="G20" t="n">
-        <v>30227901256.59987</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.3371453086843946</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.04101765358281501</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.4457</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Polkadot</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>dot</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Polkadot</t>
-        </is>
-      </c>
       <c r="C21" t="n">
-        <v>7.02</v>
+        <v>6.99</v>
       </c>
       <c r="D21" t="n">
-        <v>10660146261</v>
+        <v>10634062926</v>
       </c>
       <c r="E21" t="n">
-        <v>472571970</v>
+        <v>470731872</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.66026</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1522267060</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.331339138972199</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.04433072102668029</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.87812</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Hedera</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>hbar</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Hedera</t>
-        </is>
-      </c>
       <c r="C22" t="n">
-        <v>0.275858</v>
+        <v>0.275741</v>
       </c>
       <c r="D22" t="n">
-        <v>10529026483</v>
+        <v>10489759844</v>
       </c>
       <c r="E22" t="n">
-        <v>946610027</v>
+        <v>949074362</v>
       </c>
       <c r="F22" t="n">
-        <v>3.36211</v>
-      </c>
-      <c r="G22" t="n">
-        <v>38252162549.99437</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.327263668215884</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.08990480065069469</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>3.78931</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Hyperliquid</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>hype</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Hyperliquid</t>
-        </is>
-      </c>
       <c r="C23" t="n">
-        <v>27.99</v>
+        <v>27.85</v>
       </c>
       <c r="D23" t="n">
-        <v>9334946381</v>
+        <v>9201305485</v>
       </c>
       <c r="E23" t="n">
-        <v>719000643</v>
+        <v>720079627</v>
       </c>
       <c r="F23" t="n">
-        <v>-18.3548</v>
-      </c>
-      <c r="G23" t="n">
-        <v>333928180</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.2901492175157113</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.07702247165162372</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-18.50823</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>weth</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>WETH</t>
-        </is>
-      </c>
       <c r="C24" t="n">
-        <v>3343.95</v>
+        <v>3338.15</v>
       </c>
       <c r="D24" t="n">
-        <v>9052777702</v>
+        <v>9054453731</v>
       </c>
       <c r="E24" t="n">
-        <v>803402396</v>
+        <v>159183332</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.973</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2712787.33391943</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2813788381179325</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.08874650659128712</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.24489</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Bitcoin Cash</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>bch</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Bitcoin Cash</t>
-        </is>
-      </c>
       <c r="C25" t="n">
-        <v>447.54</v>
+        <v>446.77</v>
       </c>
       <c r="D25" t="n">
-        <v>8828540954</v>
+        <v>8843546435</v>
       </c>
       <c r="E25" t="n">
-        <v>316848472</v>
+        <v>316021118</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.27385</v>
-      </c>
-      <c r="G25" t="n">
-        <v>19805665.52165078</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2744091015693764</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.03588910938408725</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.38333</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>LEO Token</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>leo</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>LEO Token</t>
-        </is>
-      </c>
       <c r="C26" t="n">
-        <v>9.5</v>
+        <v>9.48</v>
       </c>
       <c r="D26" t="n">
-        <v>8775814491</v>
+        <v>8748374886</v>
       </c>
       <c r="E26" t="n">
-        <v>959588</v>
+        <v>935027</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75253</v>
-      </c>
-      <c r="G26" t="n">
-        <v>924445821.9</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2727702553074461</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0001093446085242688</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>1.60001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>uni</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
       <c r="C27" t="n">
-        <v>13.98</v>
+        <v>13.87</v>
       </c>
       <c r="D27" t="n">
-        <v>8384163639</v>
+        <v>8316112674</v>
       </c>
       <c r="E27" t="n">
-        <v>843290776</v>
+        <v>829085339</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.22168</v>
-      </c>
-      <c r="G27" t="n">
-        <v>600483073.71</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2605969461518141</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.1005813832255523</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.31141</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Litecoin</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>ltc</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Litecoin</t>
-        </is>
-      </c>
       <c r="C28" t="n">
-        <v>102.79</v>
+        <v>102.46</v>
       </c>
       <c r="D28" t="n">
-        <v>7704674545</v>
+        <v>7711714799</v>
       </c>
       <c r="E28" t="n">
-        <v>763957075</v>
+        <v>763471575</v>
       </c>
       <c r="F28" t="n">
-        <v>0.39335</v>
-      </c>
-      <c r="G28" t="n">
-        <v>75337570.73347135</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2394770359897334</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.09915500914905939</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.38505</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>pepe</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
       <c r="C29" t="n">
-        <v>1.812e-05</v>
+        <v>1.802e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>7573770209</v>
+        <v>7574966019</v>
       </c>
       <c r="E29" t="n">
-        <v>2610843061</v>
+        <v>2582076263</v>
       </c>
       <c r="F29" t="n">
-        <v>0.86453</v>
-      </c>
-      <c r="G29" t="n">
-        <v>420690000000000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2354082616112196</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.3447217157311565</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.13906</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Wrapped eETH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>weeth</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wrapped eETH</t>
-        </is>
-      </c>
       <c r="C30" t="n">
-        <v>3530.25</v>
+        <v>3522.37</v>
       </c>
       <c r="D30" t="n">
-        <v>6575363005</v>
+        <v>6578224805</v>
       </c>
       <c r="E30" t="n">
-        <v>50021913</v>
+        <v>49695673</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.90628</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1868238.730652418</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.2043757246068006</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.007607475505453102</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.05013</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>near</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NEAR Protocol</t>
-        </is>
-      </c>
       <c r="C31" t="n">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="D31" t="n">
-        <v>6245854826</v>
+        <v>6231347349</v>
       </c>
       <c r="E31" t="n">
-        <v>1212889758</v>
+        <v>1188810260</v>
       </c>
       <c r="F31" t="n">
-        <v>1.11524</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1217906155</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1941339367700251</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.1941911542597868</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.90851</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Ethena USDe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>usde</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ethena USDe</t>
-        </is>
-      </c>
       <c r="C32" t="n">
-        <v>1.001</v>
+        <v>0.99888</v>
       </c>
       <c r="D32" t="n">
-        <v>5920750306</v>
+        <v>5915240801</v>
       </c>
       <c r="E32" t="n">
-        <v>80254841</v>
+        <v>89059575</v>
       </c>
       <c r="F32" t="n">
-        <v>0.31855</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5924361454.449436</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.1840290236576355</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0135548430270182</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.07267999999999999</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Bitget Token</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>bgb</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Bitget Token</t>
-        </is>
-      </c>
       <c r="C33" t="n">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="D33" t="n">
-        <v>5794323218</v>
+        <v>5768198814</v>
       </c>
       <c r="E33" t="n">
-        <v>108904049</v>
+        <v>105491864</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.73215</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1400001000</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1800994113000699</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.01879495583913766</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.03948</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>USDS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>usds</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USDS</t>
-        </is>
-      </c>
       <c r="C34" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>5247752553</v>
+        <v>5241778853</v>
       </c>
       <c r="E34" t="n">
-        <v>19560612</v>
+        <v>19105915</v>
       </c>
       <c r="F34" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5241338412.37289</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.163110877644475</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.003727426513054188</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.24612</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Aptos</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>apt</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Aptos</t>
-        </is>
-      </c>
       <c r="C35" t="n">
-        <v>9.27</v>
+        <v>9.24</v>
       </c>
       <c r="D35" t="n">
-        <v>5129625233</v>
+        <v>5140424250</v>
       </c>
       <c r="E35" t="n">
-        <v>605522554</v>
+        <v>603192033</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.90835</v>
-      </c>
-      <c r="G35" t="n">
-        <v>556347376.9004167</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.159439239044066</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.1180442091762457</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-3.06167</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>aave</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
       <c r="C36" t="n">
-        <v>339.4</v>
+        <v>337.46</v>
       </c>
       <c r="D36" t="n">
-        <v>5090667085</v>
+        <v>5062623918</v>
       </c>
       <c r="E36" t="n">
-        <v>1232083849</v>
+        <v>1226846905</v>
       </c>
       <c r="F36" t="n">
-        <v>10.12832</v>
-      </c>
-      <c r="G36" t="n">
-        <v>15018037.71893785</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.158228340159733</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.242027975592908</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>10.25744</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Internet Computer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>icp</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Internet Computer</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>10.19</v>
+        <v>10.14</v>
       </c>
       <c r="D37" t="n">
-        <v>4866491773</v>
+        <v>4839867275</v>
       </c>
       <c r="E37" t="n">
-        <v>232217521</v>
+        <v>222778485</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.21796</v>
-      </c>
-      <c r="G37" t="n">
-        <v>477497254.7881362</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.1512605131676542</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.04771764380418279</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-0.48676</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>cro</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
       <c r="C38" t="n">
-        <v>0.156124</v>
+        <v>0.156129</v>
       </c>
       <c r="D38" t="n">
-        <v>4235551544</v>
+        <v>4228708294</v>
       </c>
       <c r="E38" t="n">
-        <v>28677370</v>
+        <v>28771464</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.27484</v>
-      </c>
-      <c r="G38" t="n">
-        <v>27164380803.47246</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.1316496009811481</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.006770634167024553</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.29314</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>POL (ex-MATIC)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>pol</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>POL (ex-MATIC)</t>
-        </is>
-      </c>
       <c r="C39" t="n">
-        <v>0.482527</v>
+        <v>0.480502</v>
       </c>
       <c r="D39" t="n">
-        <v>4030784166</v>
+        <v>4026636594</v>
       </c>
       <c r="E39" t="n">
-        <v>177405115</v>
+        <v>175641144</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.72711</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8387541718.797294</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.1252850122546</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.044012556290269</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.24493</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Mantle</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>mnt</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mantle</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1.19</v>
       </c>
       <c r="D40" t="n">
-        <v>4001760900</v>
+        <v>3987963372</v>
       </c>
       <c r="E40" t="n">
-        <v>163590438</v>
+        <v>159504033</v>
       </c>
       <c r="F40" t="n">
-        <v>1.74665</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3366841707.83684</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.1243829098133058</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.04087961327224723</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>1.47069</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>etc</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ethereum Classic</t>
-        </is>
-      </c>
       <c r="C41" t="n">
-        <v>26.51</v>
+        <v>26.46</v>
       </c>
       <c r="D41" t="n">
-        <v>3966387588</v>
+        <v>3968437804</v>
       </c>
       <c r="E41" t="n">
-        <v>214720889</v>
+        <v>214529617</v>
       </c>
       <c r="F41" t="n">
-        <v>0.26222</v>
-      </c>
-      <c r="G41" t="n">
-        <v>150057923.7383063</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.1232834349605494</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.05413512528367664</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.07394000000000001</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>VeChain</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>vet</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>VeChain</t>
-        </is>
-      </c>
       <c r="C42" t="n">
-        <v>0.04663835</v>
+        <v>0.04650867</v>
       </c>
       <c r="D42" t="n">
-        <v>3754966169</v>
+        <v>3763310996</v>
       </c>
       <c r="E42" t="n">
-        <v>118915619</v>
+        <v>118461051</v>
       </c>
       <c r="F42" t="n">
-        <v>0.16175</v>
-      </c>
-      <c r="G42" t="n">
-        <v>80985041177</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.1167120250364637</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.03166889224774797</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.28043</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Render</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>render</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Render</t>
-        </is>
-      </c>
       <c r="C43" t="n">
-        <v>7.18</v>
+        <v>7.16</v>
       </c>
       <c r="D43" t="n">
-        <v>3713838258</v>
+        <v>3702278235</v>
       </c>
       <c r="E43" t="n">
-        <v>162363170</v>
+        <v>160397236</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.13815</v>
-      </c>
-      <c r="G43" t="n">
-        <v>517696508.8754916</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.1154336854823132</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.04371842786913312</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-2.17183</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>xmr</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>191.66</v>
+        <v>24.45</v>
       </c>
       <c r="D44" t="n">
-        <v>3534628487</v>
+        <v>3522141054</v>
       </c>
       <c r="E44" t="n">
-        <v>78972987</v>
+        <v>34755632</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8660600000000001</v>
-      </c>
-      <c r="G44" t="n">
-        <v>18446744.07370955</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.1098634794302834</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.02234265561160233</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.27406</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>xmr</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.49</v>
+        <v>190.29</v>
       </c>
       <c r="D45" t="n">
-        <v>3522245944</v>
+        <v>3520071153</v>
       </c>
       <c r="E45" t="n">
-        <v>34545218</v>
+        <v>78084486</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5751500000000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>144118517.1081541</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.1094786046794635</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.009807724545427143</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.7226900000000001</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>MANTRA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>om</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>MANTRA</t>
-        </is>
-      </c>
       <c r="C46" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="n">
-        <v>3430992063</v>
+        <v>3413816750</v>
       </c>
       <c r="E46" t="n">
-        <v>52586948</v>
+        <v>52613135</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.67999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>949701685.86</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.1066422475021676</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.01532703866240334</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-4.73513</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Dai</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>dai</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Dai</t>
-        </is>
-      </c>
       <c r="C47" t="n">
-        <v>1.002</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>3410231128</v>
+        <v>3408208942</v>
       </c>
       <c r="E47" t="n">
-        <v>163294467</v>
+        <v>157412774</v>
       </c>
       <c r="F47" t="n">
-        <v>0.33642</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3409296865.951002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.1059969551995353</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.04788369493764119</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.03449</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Bittensor</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>tao</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Bittensor</t>
-        </is>
-      </c>
       <c r="C48" t="n">
-        <v>459.73</v>
+        <v>458.07</v>
       </c>
       <c r="D48" t="n">
-        <v>3386896392</v>
+        <v>3376616935</v>
       </c>
       <c r="E48" t="n">
-        <v>148566797</v>
+        <v>146842378</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.64588</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7381023</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.1052716639000463</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.04386517324560663</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.96265</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Artificial Superintelligence Alliance</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>fet</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Artificial Superintelligence Alliance</t>
-        </is>
-      </c>
       <c r="C49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="D49" t="n">
-        <v>3352477932</v>
+        <v>3338381888</v>
       </c>
       <c r="E49" t="n">
-        <v>377493233</v>
+        <v>376897512</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.57738</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2609959126.672</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.1042018677995114</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.1126012581311154</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.26393</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Arbitrum</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>arb</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Arbitrum</t>
-        </is>
-      </c>
       <c r="C50" t="n">
-        <v>0.766045</v>
+        <v>0.763463</v>
       </c>
       <c r="D50" t="n">
-        <v>3210096738</v>
+        <v>3212497394</v>
       </c>
       <c r="E50" t="n">
-        <v>556528751</v>
+        <v>554836651</v>
       </c>
       <c r="F50" t="n">
-        <v>0.51544</v>
-      </c>
-      <c r="G50" t="n">
-        <v>4210111968</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.09977636921152416</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.1733682179767381</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>0.13423</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Ethena</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>ena</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Ethena</t>
-        </is>
-      </c>
       <c r="C51" t="n">
-        <v>1.055</v>
+        <v>1.051</v>
       </c>
       <c r="D51" t="n">
-        <v>3072786103</v>
+        <v>3087923707</v>
       </c>
       <c r="E51" t="n">
-        <v>728561315</v>
+        <v>723377963</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.65484</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2937500000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.09550847396330663</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.2371012138751527</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>2024-12-23 16:29:37</t>
+        <v>-1.74206</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-12-23 16:54:15</t>
         </is>
       </c>
     </row>
